--- a/Datos_Naza/Idealista_preciom2_venta.xlsx
+++ b/Datos_Naza/Idealista_preciom2_venta.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nazar\Desktop\Bootcamp\Data_Science\EDA_Tematica_del_proyecto\Datos_Naza\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11859B5E-A918-4411-BB0E-F10F4D7CC1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80742057-5C67-4829-84CC-99F04CBA689B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32295" yWindow="2085" windowWidth="21600" windowHeight="11235" xr2:uid="{52340C9D-0A91-40F3-B32C-CDC8F3C8D429}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{52340C9D-0A91-40F3-B32C-CDC8F3C8D429}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="2" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="427">
   <si>
     <t>Arganzuela</t>
   </si>
@@ -1279,9 +1283,6 @@
     <t>2.694 €/m2 jun 2025</t>
   </si>
   <si>
-    <t>Localización</t>
-  </si>
-  <si>
     <t>Precio m2 nov 2025</t>
   </si>
   <si>
@@ -1298,6 +1299,24 @@
   </si>
   <si>
     <t>Variación máximo</t>
+  </si>
+  <si>
+    <t>Distrito</t>
+  </si>
+  <si>
+    <t>Barrio</t>
+  </si>
+  <si>
+    <t>Etiquetas de fila</t>
+  </si>
+  <si>
+    <t>(en blanco)</t>
+  </si>
+  <si>
+    <t>Total general</t>
+  </si>
+  <si>
+    <t>Cuenta de Barrio</t>
   </si>
 </sst>
 </file>
@@ -1341,10 +1360,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1360,6 +1384,1594 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Nazareth Montero Cordero" refreshedDate="46020.888075115741" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="139" xr:uid="{63C1DA0A-6C6E-4832-8B25-0ED0A59F78D9}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:H1048576" sheet="Hoja1"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="Distrito" numFmtId="0">
+      <sharedItems containsBlank="1" count="22">
+        <s v="Arganzuela"/>
+        <s v="Barajas"/>
+        <s v="Carabanchel"/>
+        <s v="Centro"/>
+        <s v="Chamartín"/>
+        <s v="Chamberí"/>
+        <s v="Ciudad Lineal"/>
+        <s v="Fuencarral"/>
+        <s v="Hortaleza"/>
+        <s v="Latina"/>
+        <s v="Moncloa"/>
+        <s v="Moratalaz"/>
+        <s v="Puente de Vallecas"/>
+        <s v="Retiro"/>
+        <s v="Salamanca"/>
+        <s v="San Blas"/>
+        <s v="Tetuán"/>
+        <s v="Usera"/>
+        <s v="Vicálvaro"/>
+        <s v="Villa de Vallecas"/>
+        <s v="Villaverde"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Barrio" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Precio m2 nov 2025" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Variación mensual" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="-4.9000000000000002E-2" maxValue="5.8000000000000003E-2"/>
+    </cacheField>
+    <cacheField name="Variación trimestral" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="-2.5000000000000001E-2" maxValue="0.115"/>
+    </cacheField>
+    <cacheField name="Variación anual" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="2E-3" maxValue="0.42399999999999999"/>
+    </cacheField>
+    <cacheField name="Máximo histórico" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Variación máximo" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-8.8999999999999996E-2" maxValue="0"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="139">
+  <r>
+    <x v="0"/>
+    <s v="Arganzuela"/>
+    <s v="6.143 €/m2"/>
+    <n v="2.7E-2"/>
+    <n v="4.7E-2"/>
+    <n v="0.214"/>
+    <s v="6.143 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Acacias"/>
+    <s v="6.231 €/m2"/>
+    <n v="2.5999999999999999E-2"/>
+    <n v="4.2000000000000003E-2"/>
+    <n v="0.23100000000000001"/>
+    <s v="6.231 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Chopera"/>
+    <s v="5.896 €/m2"/>
+    <n v="2.1000000000000001E-2"/>
+    <n v="1.7999999999999999E-2"/>
+    <n v="0.20100000000000001"/>
+    <s v="5.896 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Delicias"/>
+    <s v="5.950 €/m2"/>
+    <n v="0.04"/>
+    <n v="3.2000000000000001E-2"/>
+    <n v="0.17599999999999999"/>
+    <s v="5.950 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Imperial"/>
+    <s v="6.265 €/m2"/>
+    <n v="2.1999999999999999E-2"/>
+    <n v="5.2999999999999999E-2"/>
+    <n v="0.20899999999999999"/>
+    <s v="6.265 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Legazpi"/>
+    <s v="6.318 €/m2"/>
+    <n v="1.4999999999999999E-2"/>
+    <s v="n.d."/>
+    <n v="0.23100000000000001"/>
+    <s v="6.318 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Palos de Moguer"/>
+    <s v="6.164 €/m2"/>
+    <n v="1.4E-2"/>
+    <n v="3.6999999999999998E-2"/>
+    <n v="0.20399999999999999"/>
+    <s v="6.164 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Barajas"/>
+    <s v="4.611 €/m2"/>
+    <n v="-8.0000000000000002E-3"/>
+    <n v="6.8000000000000005E-2"/>
+    <n v="0.182"/>
+    <s v="4.646 €/m2 oct 2025"/>
+    <n v="-8.0000000000000002E-3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Alameda de Osuna"/>
+    <s v="5.024 €/m2"/>
+    <n v="-2.7E-2"/>
+    <s v="n.d."/>
+    <n v="0.24399999999999999"/>
+    <s v="5.165 €/m2 oct 2025"/>
+    <n v="-2.7E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Campo de las Naciones-Corralejos"/>
+    <s v="4.992 €/m2"/>
+    <s v="n.d."/>
+    <s v="n.d."/>
+    <s v="n.d."/>
+    <s v="4.992 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Carabanchel"/>
+    <s v="3.525 €/m2"/>
+    <n v="1.7000000000000001E-2"/>
+    <n v="4.8000000000000001E-2"/>
+    <n v="0.22"/>
+    <s v="3.525 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Abrantes"/>
+    <s v="3.183 €/m2"/>
+    <n v="2.9000000000000001E-2"/>
+    <n v="0.06"/>
+    <n v="0.22900000000000001"/>
+    <s v="3.183 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Buena Vista"/>
+    <s v="3.230 €/m2"/>
+    <n v="-1E-3"/>
+    <n v="5.1999999999999998E-2"/>
+    <n v="0.187"/>
+    <s v="3.233 €/m2 oct 2025"/>
+    <n v="-1E-3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Comillas"/>
+    <s v="4.444 €/m2"/>
+    <s v="n.d."/>
+    <n v="7.5999999999999998E-2"/>
+    <n v="0.28399999999999997"/>
+    <s v="4.444 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Opañel"/>
+    <s v="3.802 €/m2"/>
+    <n v="1.0999999999999999E-2"/>
+    <n v="2.3E-2"/>
+    <n v="0.27100000000000002"/>
+    <s v="3.802 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Pau de Carabanchel"/>
+    <s v="4.077 €/m2"/>
+    <n v="-1.6E-2"/>
+    <n v="-2.4E-2"/>
+    <n v="0.16800000000000001"/>
+    <s v="4.213 €/m2 sep 2025"/>
+    <n v="-3.2000000000000001E-2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Puerta Bonita"/>
+    <s v="3.243 €/m2"/>
+    <n v="0.01"/>
+    <n v="5.0999999999999997E-2"/>
+    <n v="0.25900000000000001"/>
+    <s v="3.243 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="San Isidro"/>
+    <s v="3.619 €/m2"/>
+    <n v="3.0000000000000001E-3"/>
+    <n v="-5.0000000000000001E-3"/>
+    <n v="0.19400000000000001"/>
+    <s v="3.648 €/m2 sep 2025"/>
+    <n v="-8.0000000000000002E-3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Vista Alegre"/>
+    <s v="3.534 €/m2"/>
+    <n v="2.9000000000000001E-2"/>
+    <n v="5.7000000000000002E-2"/>
+    <n v="0.26300000000000001"/>
+    <s v="3.534 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Centro"/>
+    <s v="7.332 €/m2"/>
+    <n v="1.6E-2"/>
+    <n v="7.0000000000000001E-3"/>
+    <n v="0.112"/>
+    <s v="7.332 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Chueca-Justicia"/>
+    <s v="8.846 €/m2"/>
+    <n v="1E-3"/>
+    <n v="-2.1999999999999999E-2"/>
+    <n v="9.6000000000000002E-2"/>
+    <s v="9.171 €/m2 jul 2025"/>
+    <n v="-3.5000000000000003E-2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Huertas-Cortes"/>
+    <s v="8.140 €/m2"/>
+    <n v="7.0000000000000001E-3"/>
+    <n v="3.4000000000000002E-2"/>
+    <n v="0.10299999999999999"/>
+    <s v="8.140 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Lavapiés-Embajadores"/>
+    <s v="6.067 €/m2"/>
+    <n v="-5.0000000000000001E-3"/>
+    <n v="4.0000000000000001E-3"/>
+    <n v="0.17100000000000001"/>
+    <s v="6.111 €/m2 sep 2025"/>
+    <n v="-7.0000000000000001E-3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Malasaña-Universidad"/>
+    <s v="7.597 €/m2"/>
+    <n v="0"/>
+    <n v="-1.2E-2"/>
+    <n v="0.107"/>
+    <s v="7.728 €/m2 jul 2025"/>
+    <n v="-1.7000000000000001E-2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Palacio"/>
+    <s v="7.250 €/m2"/>
+    <n v="4.2999999999999997E-2"/>
+    <n v="6.5000000000000002E-2"/>
+    <n v="0.14799999999999999"/>
+    <s v="7.250 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Sol"/>
+    <s v="7.866 €/m2"/>
+    <n v="2.7E-2"/>
+    <n v="4.3999999999999997E-2"/>
+    <n v="0.08"/>
+    <s v="7.866 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="Chamartín"/>
+    <s v="7.658 €/m2"/>
+    <n v="8.9999999999999993E-3"/>
+    <n v="1.4E-2"/>
+    <n v="0.16500000000000001"/>
+    <s v="7.658 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="Bernabéu-Hispanoamérica"/>
+    <s v="8.163 €/m2"/>
+    <n v="1.9E-2"/>
+    <n v="5.8000000000000003E-2"/>
+    <n v="0.222"/>
+    <s v="8.163 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="Castilla"/>
+    <s v="6.575 €/m2"/>
+    <n v="-2.5999999999999999E-2"/>
+    <n v="1.4999999999999999E-2"/>
+    <n v="0.193"/>
+    <s v="6.752 €/m2 oct 2025"/>
+    <n v="-2.5999999999999999E-2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="Ciudad Jardín"/>
+    <s v="7.110 €/m2"/>
+    <n v="2.3E-2"/>
+    <n v="2.4E-2"/>
+    <n v="0.16200000000000001"/>
+    <s v="7.110 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="El Viso"/>
+    <s v="9.196 €/m2"/>
+    <n v="4.4999999999999998E-2"/>
+    <n v="2.5000000000000001E-2"/>
+    <n v="0.13800000000000001"/>
+    <s v="9.196 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="Nueva España"/>
+    <s v="7.759 €/m2"/>
+    <n v="4.0000000000000001E-3"/>
+    <n v="-8.9999999999999993E-3"/>
+    <n v="0.155"/>
+    <s v="7.845 €/m2 sep 2025"/>
+    <n v="-1.0999999999999999E-2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="Prosperidad"/>
+    <s v="6.960 €/m2"/>
+    <n v="-3.0000000000000001E-3"/>
+    <n v="1.6E-2"/>
+    <n v="0.20599999999999999"/>
+    <s v="6.980 €/m2 oct 2025"/>
+    <n v="-3.0000000000000001E-3"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Chamberí"/>
+    <s v="8.695 €/m2"/>
+    <n v="2.9000000000000001E-2"/>
+    <n v="3.6999999999999998E-2"/>
+    <n v="0.21199999999999999"/>
+    <s v="8.695 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Almagro"/>
+    <s v="10.588 €/m2"/>
+    <n v="2.5000000000000001E-2"/>
+    <n v="2.3E-2"/>
+    <n v="0.155"/>
+    <s v="10.588 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Arapiles"/>
+    <s v="8.179 €/m2"/>
+    <n v="0.04"/>
+    <n v="2.7E-2"/>
+    <n v="0.309"/>
+    <s v="8.179 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Gaztambide"/>
+    <s v="7.602 €/m2"/>
+    <n v="0.02"/>
+    <n v="0.04"/>
+    <n v="0.24399999999999999"/>
+    <s v="7.602 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Nuevos Ministerios-Ríos Rosas"/>
+    <s v="8.871 €/m2"/>
+    <n v="2.1000000000000001E-2"/>
+    <n v="8.8999999999999996E-2"/>
+    <n v="0.26200000000000001"/>
+    <s v="8.871 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Trafalgar"/>
+    <s v="8.981 €/m2"/>
+    <n v="2.3E-2"/>
+    <n v="4.8000000000000001E-2"/>
+    <n v="0.20200000000000001"/>
+    <s v="8.981 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Vallehermoso"/>
+    <s v="7.579 €/m2"/>
+    <n v="8.9999999999999993E-3"/>
+    <n v="1.6E-2"/>
+    <n v="0.19400000000000001"/>
+    <s v="7.579 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="Ciudad Lineal"/>
+    <s v="4.932 €/m2"/>
+    <n v="0.01"/>
+    <n v="3.9E-2"/>
+    <n v="0.23200000000000001"/>
+    <s v="4.932 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="Colina"/>
+    <s v="5.979 €/m2"/>
+    <n v="-7.0000000000000001E-3"/>
+    <n v="2E-3"/>
+    <n v="1.2999999999999999E-2"/>
+    <s v="6.137 €/m2 jun 2025"/>
+    <n v="-2.5999999999999999E-2"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="Concepción"/>
+    <s v="5.469 €/m2"/>
+    <s v="n.d."/>
+    <n v="7.4999999999999997E-2"/>
+    <n v="0.26700000000000002"/>
+    <s v="5.469 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="Costillares"/>
+    <s v="6.319 €/m2"/>
+    <n v="2.1000000000000001E-2"/>
+    <n v="6.2E-2"/>
+    <n v="0.27200000000000002"/>
+    <s v="6.319 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="Pueblo Nuevo"/>
+    <s v="4.160 €/m2"/>
+    <n v="2.4E-2"/>
+    <n v="4.4999999999999998E-2"/>
+    <n v="0.19500000000000001"/>
+    <s v="4.160 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="Quintana"/>
+    <s v="4.934 €/m2"/>
+    <n v="3.3000000000000002E-2"/>
+    <n v="2.5000000000000001E-2"/>
+    <n v="0.28000000000000003"/>
+    <s v="4.934 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="San Juan Bautista"/>
+    <s v="5.844 €/m2"/>
+    <n v="0"/>
+    <n v="2E-3"/>
+    <n v="0.20799999999999999"/>
+    <s v="5.878 €/m2 sep 2025"/>
+    <n v="-6.0000000000000001E-3"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="San Pascual"/>
+    <s v="5.434 €/m2"/>
+    <n v="-4.2000000000000003E-2"/>
+    <n v="1.7999999999999999E-2"/>
+    <n v="0.27700000000000002"/>
+    <s v="5.673 €/m2 oct 2025"/>
+    <n v="-4.2000000000000003E-2"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="Ventas"/>
+    <s v="4.748 €/m2"/>
+    <n v="2.5999999999999999E-2"/>
+    <n v="7.1999999999999995E-2"/>
+    <n v="0.37"/>
+    <s v="4.748 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="Fuencarral"/>
+    <s v="5.257 €/m2"/>
+    <n v="3.1E-2"/>
+    <n v="5.3999999999999999E-2"/>
+    <n v="0.221"/>
+    <s v="5.257 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="La Paz"/>
+    <s v="5.575 €/m2"/>
+    <n v="3.2000000000000001E-2"/>
+    <n v="0.115"/>
+    <n v="0.161"/>
+    <s v="5.575 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="Mirasierra"/>
+    <s v="6.171 €/m2"/>
+    <n v="1.6E-2"/>
+    <s v="n.d."/>
+    <n v="0.23100000000000001"/>
+    <s v="6.171 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="Montecarmelo"/>
+    <s v="6.523 €/m2"/>
+    <n v="5.8000000000000003E-2"/>
+    <n v="4.3999999999999997E-2"/>
+    <n v="0.219"/>
+    <s v="6.523 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="Peñagrande"/>
+    <s v="5.061 €/m2"/>
+    <n v="2E-3"/>
+    <n v="2.1999999999999999E-2"/>
+    <n v="0.125"/>
+    <s v="5.061 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="Pilar"/>
+    <s v="5.436 €/m2"/>
+    <n v="0"/>
+    <n v="4.1000000000000002E-2"/>
+    <n v="0.35899999999999999"/>
+    <s v="5.436 €/m2 oct 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="Tres Olivos - Valverde"/>
+    <s v="4.057 €/m2"/>
+    <n v="1.7999999999999999E-2"/>
+    <n v="-1.4E-2"/>
+    <n v="0.26500000000000001"/>
+    <s v="4.113 €/m2 ago 2025"/>
+    <n v="-1.4E-2"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Hortaleza"/>
+    <s v="5.060 €/m2"/>
+    <n v="-6.0000000000000001E-3"/>
+    <n v="2E-3"/>
+    <n v="0.127"/>
+    <s v="5.117 €/m2 jul 2025"/>
+    <n v="-1.0999999999999999E-2"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Apóstol Santiago"/>
+    <s v="4.379 €/m2"/>
+    <n v="3.5000000000000003E-2"/>
+    <n v="1.9E-2"/>
+    <n v="0.20899999999999999"/>
+    <s v="4.379 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Canillas"/>
+    <s v="4.845 €/m2"/>
+    <n v="-1.4E-2"/>
+    <n v="0"/>
+    <n v="0.13800000000000001"/>
+    <s v="5.027 €/m2 jul 2025"/>
+    <n v="-3.5999999999999997E-2"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Conde Orgaz-Piovera"/>
+    <s v="5.802 €/m2"/>
+    <n v="1E-3"/>
+    <n v="2.3E-2"/>
+    <n v="8.6999999999999994E-2"/>
+    <s v="5.834 €/m2 jun 2025"/>
+    <n v="-6.0000000000000001E-3"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Palomas"/>
+    <s v="5.433 €/m2"/>
+    <n v="3.4000000000000002E-2"/>
+    <n v="8.4000000000000005E-2"/>
+    <n v="0.20499999999999999"/>
+    <s v="5.433 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Sanchinarro"/>
+    <s v="5.638 €/m2"/>
+    <n v="1.0999999999999999E-2"/>
+    <n v="3.3000000000000002E-2"/>
+    <n v="0.216"/>
+    <s v="5.638 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Valdebebas - Valdefuentes"/>
+    <s v="5.399 €/m2"/>
+    <n v="-1.0999999999999999E-2"/>
+    <n v="1.9E-2"/>
+    <n v="0.124"/>
+    <s v="5.461 €/m2 oct 2025"/>
+    <n v="-1.0999999999999999E-2"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Virgen del Cortijo - Manoteras"/>
+    <s v="4.963 €/m2"/>
+    <n v="-2.1999999999999999E-2"/>
+    <n v="-0.01"/>
+    <n v="0.08"/>
+    <s v="5.176 €/m2 sep 2025"/>
+    <n v="-4.1000000000000002E-2"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Latina"/>
+    <s v="3.793 €/m2"/>
+    <n v="2E-3"/>
+    <n v="3.6999999999999998E-2"/>
+    <n v="0.23599999999999999"/>
+    <s v="3.793 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Águilas"/>
+    <s v="3.648 €/m2"/>
+    <n v="2.3E-2"/>
+    <n v="4.5999999999999999E-2"/>
+    <n v="0.29299999999999998"/>
+    <s v="3.648 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Aluche"/>
+    <s v="3.703 €/m2"/>
+    <n v="-1.7000000000000001E-2"/>
+    <n v="1.0999999999999999E-2"/>
+    <n v="0.251"/>
+    <s v="3.768 €/m2 oct 2025"/>
+    <n v="-1.7000000000000001E-2"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Campamento"/>
+    <s v="3.665 €/m2"/>
+    <n v="-4.0000000000000001E-3"/>
+    <n v="4.2000000000000003E-2"/>
+    <n v="0.25700000000000001"/>
+    <s v="3.679 €/m2 oct 2025"/>
+    <n v="-4.0000000000000001E-3"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Los Cármenes"/>
+    <s v="3.853 €/m2"/>
+    <s v="n.d."/>
+    <n v="0.105"/>
+    <n v="0.38200000000000001"/>
+    <s v="3.853 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Lucero"/>
+    <s v="3.599 €/m2"/>
+    <n v="3.7999999999999999E-2"/>
+    <n v="3.5999999999999997E-2"/>
+    <n v="0.20899999999999999"/>
+    <s v="3.599 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Puerta del Ángel"/>
+    <s v="4.366 €/m2"/>
+    <n v="1E-3"/>
+    <n v="1E-3"/>
+    <n v="0.184"/>
+    <s v="4.432 €/m2 sep 2025"/>
+    <n v="-1.4999999999999999E-2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="Moncloa"/>
+    <s v="6.240 €/m2"/>
+    <n v="5.0000000000000001E-3"/>
+    <n v="3.7999999999999999E-2"/>
+    <n v="0.21199999999999999"/>
+    <s v="6.240 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="Aravaca"/>
+    <s v="5.385 €/m2"/>
+    <n v="-1E-3"/>
+    <n v="3.6999999999999998E-2"/>
+    <n v="9.4E-2"/>
+    <s v="5.392 €/m2 oct 2025"/>
+    <n v="-1E-3"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="Argüelles"/>
+    <s v="7.711 €/m2"/>
+    <n v="0"/>
+    <n v="1.4E-2"/>
+    <n v="0.19700000000000001"/>
+    <s v="7.713 €/m2 oct 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="Casa de Campo"/>
+    <s v="5.995 €/m2"/>
+    <n v="2.1999999999999999E-2"/>
+    <n v="5.3999999999999999E-2"/>
+    <s v="n.d."/>
+    <s v="5.995 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="Ciudad Universitaria"/>
+    <s v="5.568 €/m2"/>
+    <n v="-4.9000000000000002E-2"/>
+    <n v="-1.4999999999999999E-2"/>
+    <n v="0.13600000000000001"/>
+    <s v="5.856 €/m2 oct 2025"/>
+    <n v="-4.9000000000000002E-2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="El Plantío"/>
+    <s v="3.985 €/m2"/>
+    <n v="1.7000000000000001E-2"/>
+    <n v="1.4999999999999999E-2"/>
+    <n v="0.27100000000000002"/>
+    <s v="3.985 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="Valdemarín"/>
+    <s v="5.982 €/m2"/>
+    <n v="1.7999999999999999E-2"/>
+    <n v="3.4000000000000002E-2"/>
+    <n v="0.111"/>
+    <s v="5.982 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="Valdezarza"/>
+    <s v="5.189 €/m2"/>
+    <n v="-1E-3"/>
+    <n v="6.6000000000000003E-2"/>
+    <n v="0.29899999999999999"/>
+    <s v="5.192 €/m2 oct 2025"/>
+    <n v="-1E-3"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="Moratalaz"/>
+    <s v="4.078 €/m2"/>
+    <n v="8.0000000000000002E-3"/>
+    <n v="4.2999999999999997E-2"/>
+    <n v="0.22600000000000001"/>
+    <s v="4.078 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="Fontarrón"/>
+    <s v="3.679 €/m2"/>
+    <n v="8.9999999999999993E-3"/>
+    <n v="6.6000000000000003E-2"/>
+    <n v="0.216"/>
+    <s v="3.679 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="Marroquina"/>
+    <s v="4.533 €/m2"/>
+    <n v="-0.02"/>
+    <n v="2.8000000000000001E-2"/>
+    <n v="0.23899999999999999"/>
+    <s v="4.625 €/m2 oct 2025"/>
+    <n v="-0.02"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="Media Legua"/>
+    <s v="4.214 €/m2"/>
+    <s v="n.d."/>
+    <s v="n.d."/>
+    <n v="0.223"/>
+    <s v="4.214 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="Vinateros"/>
+    <s v="4.231 €/m2"/>
+    <s v="n.d."/>
+    <n v="7.0000000000000007E-2"/>
+    <s v="n.d."/>
+    <s v="4.231 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="Puente de Vallecas"/>
+    <s v="3.103 €/m2"/>
+    <n v="2.1000000000000001E-2"/>
+    <n v="4.4999999999999998E-2"/>
+    <n v="0.23200000000000001"/>
+    <s v="3.103 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="Entrevías"/>
+    <s v="2.556 €/m2"/>
+    <n v="5.6000000000000001E-2"/>
+    <n v="6.2E-2"/>
+    <n v="0.23400000000000001"/>
+    <s v="2.556 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="Numancia"/>
+    <s v="3.399 €/m2"/>
+    <n v="3.2000000000000001E-2"/>
+    <n v="6.3E-2"/>
+    <n v="0.26100000000000001"/>
+    <s v="3.399 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="Palomeras sureste"/>
+    <s v="3.110 €/m2"/>
+    <n v="-5.0000000000000001E-3"/>
+    <n v="0.04"/>
+    <n v="0.23899999999999999"/>
+    <s v="3.126 €/m2 oct 2025"/>
+    <n v="-5.0000000000000001E-3"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="Portazgo"/>
+    <s v="3.204 €/m2"/>
+    <n v="4.7E-2"/>
+    <n v="6.8000000000000005E-2"/>
+    <n v="0.29899999999999999"/>
+    <s v="3.204 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="San Diego"/>
+    <s v="3.175 €/m2"/>
+    <n v="1.4E-2"/>
+    <n v="5.6000000000000001E-2"/>
+    <n v="0.221"/>
+    <s v="3.175 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="Retiro"/>
+    <s v="7.758 €/m2"/>
+    <n v="4.0000000000000001E-3"/>
+    <n v="-2E-3"/>
+    <n v="0.22500000000000001"/>
+    <s v="7.822 €/m2 sep 2025"/>
+    <n v="-8.0000000000000002E-3"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="Adelfas"/>
+    <s v="6.153 €/m2"/>
+    <n v="6.0000000000000001E-3"/>
+    <n v="2.9000000000000001E-2"/>
+    <n v="0.18099999999999999"/>
+    <s v="6.153 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="Estrella"/>
+    <s v="6.391 €/m2"/>
+    <n v="-5.0000000000000001E-3"/>
+    <n v="5.2999999999999999E-2"/>
+    <n v="0.26900000000000002"/>
+    <s v="6.424 €/m2 oct 2025"/>
+    <n v="-5.0000000000000001E-3"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="Ibiza"/>
+    <s v="9.433 €/m2"/>
+    <n v="5.0000000000000001E-3"/>
+    <n v="6.0000000000000001E-3"/>
+    <n v="0.16400000000000001"/>
+    <s v="9.492 €/m2 sep 2025"/>
+    <n v="-6.0000000000000001E-3"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="Jerónimos"/>
+    <s v="8.769 €/m2"/>
+    <n v="2.1000000000000001E-2"/>
+    <n v="-2E-3"/>
+    <n v="2E-3"/>
+    <s v="9.630 €/m2 mar 2025"/>
+    <n v="-8.8999999999999996E-2"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="Niño Jesús"/>
+    <s v="7.429 €/m2"/>
+    <n v="8.9999999999999993E-3"/>
+    <n v="-2.5000000000000001E-2"/>
+    <n v="0.19900000000000001"/>
+    <s v="7.644 €/m2 sep 2025"/>
+    <n v="-2.8000000000000001E-2"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="Pacífico"/>
+    <s v="6.644 €/m2"/>
+    <n v="2.5000000000000001E-2"/>
+    <n v="2.1999999999999999E-2"/>
+    <n v="0.29899999999999999"/>
+    <s v="6.691 €/m2 sep 2025"/>
+    <n v="-7.0000000000000001E-3"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="Salamanca"/>
+    <s v="9.950 €/m2"/>
+    <n v="0.02"/>
+    <n v="8.0000000000000002E-3"/>
+    <n v="0.151"/>
+    <s v="9.950 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="Castellana"/>
+    <s v="11.107 €/m2"/>
+    <n v="0.01"/>
+    <n v="5.0999999999999997E-2"/>
+    <n v="0.14599999999999999"/>
+    <s v="11.107 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="Fuente del Berro"/>
+    <s v="7.453 €/m2"/>
+    <n v="2.5000000000000001E-2"/>
+    <n v="4.4999999999999998E-2"/>
+    <n v="0.26400000000000001"/>
+    <s v="7.453 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="Goya"/>
+    <s v="10.251 €/m2"/>
+    <n v="0"/>
+    <n v="-8.0000000000000002E-3"/>
+    <n v="0.159"/>
+    <s v="10.391 €/m2 jul 2025"/>
+    <n v="-1.2999999999999999E-2"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="Guindalera"/>
+    <s v="7.133 €/m2"/>
+    <n v="2.4E-2"/>
+    <n v="8.9999999999999993E-3"/>
+    <n v="0.21199999999999999"/>
+    <s v="7.133 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="Lista"/>
+    <s v="10.398 €/m2"/>
+    <n v="3.1E-2"/>
+    <n v="-1.4999999999999999E-2"/>
+    <n v="0.191"/>
+    <s v="10.560 €/m2 ago 2025"/>
+    <n v="-1.4999999999999999E-2"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="Recoletos"/>
+    <s v="11.083 €/m2"/>
+    <n v="2.1999999999999999E-2"/>
+    <n v="-8.0000000000000002E-3"/>
+    <n v="5.8000000000000003E-2"/>
+    <s v="11.191 €/m2 jul 2025"/>
+    <n v="-0.01"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="San Blas"/>
+    <s v="3.918 €/m2"/>
+    <n v="3.3000000000000002E-2"/>
+    <n v="5.3999999999999999E-2"/>
+    <n v="0.22700000000000001"/>
+    <s v="3.918 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="Amposta"/>
+    <s v="3.236 €/m2"/>
+    <n v="1.6E-2"/>
+    <n v="2.3E-2"/>
+    <n v="0.35499999999999998"/>
+    <s v="3.236 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="Arcos"/>
+    <s v="3.460 €/m2"/>
+    <n v="1.9E-2"/>
+    <n v="4.9000000000000002E-2"/>
+    <n v="0.29099999999999998"/>
+    <s v="3.460 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="Canillejas"/>
+    <s v="4.101 €/m2"/>
+    <n v="4.2000000000000003E-2"/>
+    <n v="8.5999999999999993E-2"/>
+    <n v="0.29799999999999999"/>
+    <s v="4.101 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="Hellín"/>
+    <s v="3.288 €/m2"/>
+    <s v="n.d."/>
+    <n v="7.5999999999999998E-2"/>
+    <n v="0.36399999999999999"/>
+    <s v="3.288 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="Rejas"/>
+    <s v="4.250 €/m2"/>
+    <n v="-1.4999999999999999E-2"/>
+    <n v="1.7000000000000001E-2"/>
+    <n v="0.21299999999999999"/>
+    <s v="4.314 €/m2 oct 2025"/>
+    <n v="-1.4999999999999999E-2"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="Rosas"/>
+    <s v="4.908 €/m2"/>
+    <s v="n.d."/>
+    <n v="3.3000000000000002E-2"/>
+    <n v="0.30399999999999999"/>
+    <s v="4.908 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="Salvador"/>
+    <s v="5.335 €/m2"/>
+    <s v="n.d."/>
+    <n v="4.7E-2"/>
+    <n v="0.246"/>
+    <s v="5.335 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="Simancas"/>
+    <s v="3.983 €/m2"/>
+    <n v="3.6999999999999998E-2"/>
+    <n v="7.3999999999999996E-2"/>
+    <n v="0.20200000000000001"/>
+    <s v="3.983 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="Tetuán"/>
+    <s v="5.671 €/m2"/>
+    <n v="-1E-3"/>
+    <n v="2.4E-2"/>
+    <n v="0.14599999999999999"/>
+    <s v="5.675 €/m2 oct 2025"/>
+    <n v="-1E-3"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="Bellas Vistas"/>
+    <s v="5.346 €/m2"/>
+    <n v="-1.4E-2"/>
+    <n v="4.2999999999999997E-2"/>
+    <n v="0.16700000000000001"/>
+    <s v="5.420 €/m2 oct 2025"/>
+    <n v="-1.4E-2"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="Berruguete"/>
+    <s v="5.048 €/m2"/>
+    <n v="-2E-3"/>
+    <n v="3.5999999999999997E-2"/>
+    <n v="0.158"/>
+    <s v="5.056 €/m2 oct 2025"/>
+    <n v="-2E-3"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="Cuatro Caminos"/>
+    <s v="6.795 €/m2"/>
+    <n v="2.8000000000000001E-2"/>
+    <n v="5.5E-2"/>
+    <n v="0.14199999999999999"/>
+    <s v="6.795 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="Cuzco-Castillejos"/>
+    <s v="7.296 €/m2"/>
+    <n v="2.7E-2"/>
+    <n v="5.0999999999999997E-2"/>
+    <n v="0.23499999999999999"/>
+    <s v="7.296 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="Valdeacederas"/>
+    <s v="5.037 €/m2"/>
+    <n v="0"/>
+    <n v="2.3E-2"/>
+    <n v="0.16600000000000001"/>
+    <s v="5.039 €/m2 oct 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="Ventilla-Almenara"/>
+    <s v="5.076 €/m2"/>
+    <n v="-2E-3"/>
+    <n v="-2.5000000000000001E-2"/>
+    <n v="0.16400000000000001"/>
+    <s v="5.204 €/m2 ago 2025"/>
+    <n v="-2.5000000000000001E-2"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="Usera"/>
+    <s v="3.269 €/m2"/>
+    <n v="1.7000000000000001E-2"/>
+    <n v="4.4999999999999998E-2"/>
+    <n v="0.20200000000000001"/>
+    <s v="3.269 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="Almendrales"/>
+    <s v="3.520 €/m2"/>
+    <n v="-1.4E-2"/>
+    <n v="4.5999999999999999E-2"/>
+    <n v="0.216"/>
+    <s v="3.571 €/m2 oct 2025"/>
+    <n v="-1.4E-2"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="Moscardó"/>
+    <s v="3.603 €/m2"/>
+    <n v="2.3E-2"/>
+    <n v="2.5999999999999999E-2"/>
+    <n v="0.13700000000000001"/>
+    <s v="3.638 €/m2 jul 2025"/>
+    <n v="-8.9999999999999993E-3"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="Orcasitas"/>
+    <s v="2.789 €/m2"/>
+    <n v="2.4E-2"/>
+    <n v="3.9E-2"/>
+    <n v="0.27100000000000002"/>
+    <s v="2.789 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="Pradolongo"/>
+    <s v="3.307 €/m2"/>
+    <s v="n.d."/>
+    <n v="0.106"/>
+    <n v="0.23200000000000001"/>
+    <s v="3.307 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="San Fermín"/>
+    <s v="3.078 €/m2"/>
+    <n v="3.5999999999999997E-2"/>
+    <n v="5.5E-2"/>
+    <n v="0.249"/>
+    <s v="3.078 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="Zofío"/>
+    <s v="3.181 €/m2"/>
+    <s v="n.d."/>
+    <n v="5.7000000000000002E-2"/>
+    <n v="0.14399999999999999"/>
+    <s v="3.181 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="Vicálvaro"/>
+    <s v="3.715 €/m2"/>
+    <n v="0"/>
+    <n v="2.8000000000000001E-2"/>
+    <n v="0.127"/>
+    <s v="3.716 €/m2 oct 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="Ambroz"/>
+    <s v="3.641 €/m2"/>
+    <s v="n.d."/>
+    <s v="n.d."/>
+    <n v="0.42399999999999999"/>
+    <s v="3.641 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="Casco Histórico de Vicálvaro"/>
+    <s v="3.373 €/m2"/>
+    <n v="-8.0000000000000002E-3"/>
+    <n v="8.0000000000000002E-3"/>
+    <n v="0.19800000000000001"/>
+    <s v="3.402 €/m2 oct 2025"/>
+    <n v="-8.0000000000000002E-3"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="El Cañaveral - Los Berrocales"/>
+    <s v="4.224 €/m2"/>
+    <n v="2.1000000000000001E-2"/>
+    <s v="n.d."/>
+    <n v="0.19600000000000001"/>
+    <s v="4.224 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="Valdebernardo - Valderribas"/>
+    <s v="3.927 €/m2"/>
+    <s v="n.d."/>
+    <s v="n.d."/>
+    <n v="0.14499999999999999"/>
+    <s v="3.927 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="Villa de Vallecas"/>
+    <s v="3.479 €/m2"/>
+    <n v="1.4E-2"/>
+    <n v="3.7999999999999999E-2"/>
+    <n v="0.16400000000000001"/>
+    <s v="3.479 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="Casco Histórico de Vallecas"/>
+    <s v="3.054 €/m2"/>
+    <n v="1.4E-2"/>
+    <n v="2.7E-2"/>
+    <n v="0.182"/>
+    <s v="3.054 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="Ensanche de Vallecas - La Gavia"/>
+    <s v="4.113 €/m2"/>
+    <n v="1.4E-2"/>
+    <n v="3.4000000000000002E-2"/>
+    <n v="0.19500000000000001"/>
+    <s v="4.123 €/m2 jul 2025"/>
+    <n v="-2E-3"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <s v="Villaverde"/>
+    <s v="2.750 €/m2"/>
+    <n v="1.4999999999999999E-2"/>
+    <n v="4.5999999999999999E-2"/>
+    <n v="0.248"/>
+    <s v="2.900 €/m2 feb 2008"/>
+    <n v="-5.0999999999999997E-2"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <s v="Los Rosales"/>
+    <s v="2.831 €/m2"/>
+    <n v="5.0000000000000001E-3"/>
+    <n v="7.4999999999999997E-2"/>
+    <n v="0.19800000000000001"/>
+    <s v="2.831 €/m2 nov 2025"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <s v="San Andrés"/>
+    <s v="2.673 €/m2"/>
+    <n v="4.0000000000000001E-3"/>
+    <n v="3.0000000000000001E-3"/>
+    <n v="0.183"/>
+    <s v="2.694 €/m2 jun 2025"/>
+    <n v="-8.0000000000000002E-3"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D12C6F3A-FBA7-47B4-A73E-CB441FD279AE}" name="TablaDinámica1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="23">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="23">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de Barrio" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1658,257 +3270,497 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31CACE7E-4B7E-477D-B870-82C8622942F5}">
-  <dimension ref="A1:G139"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{791B9AA7-BF4B-4995-9591-8F143E7C3AB6}">
+  <dimension ref="A3:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="B3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B13" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B14" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B15" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B16" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B17" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B18" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B19" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B20" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="B21" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B22" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="B23" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="B24" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="B25" s="5"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="B26" s="5">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31CACE7E-4B7E-477D-B870-82C8622942F5}">
+  <dimension ref="A1:H139"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="O141" sqref="O141"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C1" t="s">
         <v>415</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>416</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>417</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>418</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>419</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>420</v>
       </c>
-      <c r="G1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>2.7E-2</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>0.214</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>0.23100000000000001</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>0.20100000000000001</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>0.04</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>0.17599999999999999</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>0.20899999999999999</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>0.23100000000000001</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>1.4E-2</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>0.20399999999999999</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>-8.0000000000000002E-3</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>0.182</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>-8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
         <v>-2.7E-2</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>0.24399999999999999</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>-2.7E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -1917,2953 +3769,3340 @@
         <v>17</v>
       </c>
       <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D12" s="1">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>0.22</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
         <v>34</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="1">
+      <c r="D13" s="1">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>0.06</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>0.22900000000000001</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
         <v>37</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="1">
+      <c r="D14" s="1">
         <v>-1E-3</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="1">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>0.187</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
         <v>40</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>41</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="1">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <v>0.28399999999999997</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
         <v>43</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="1">
+      <c r="D16" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E16" s="1">
         <v>2.3E-2</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="1">
         <v>0.27100000000000002</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
         <v>46</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="1">
+      <c r="D17" s="1">
         <v>-1.6E-2</v>
       </c>
-      <c r="D17" s="1">
+      <c r="E17" s="1">
         <v>-2.4E-2</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="1">
         <v>0.16800000000000001</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <v>-3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
         <v>49</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="1">
+      <c r="D18" s="1">
         <v>0.01</v>
       </c>
-      <c r="D18" s="1">
+      <c r="E18" s="1">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <v>0.25900000000000001</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
         <v>52</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="1">
+      <c r="D19" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="D19" s="1">
+      <c r="E19" s="1">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <v>0.19400000000000001</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>54</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H19" s="1">
         <v>-8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
         <v>55</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="1">
+      <c r="D20" s="1">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="D20" s="1">
+      <c r="E20" s="1">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F20" s="1">
         <v>0.26300000000000001</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="1">
+      <c r="D21" s="1">
         <v>1.6E-2</v>
       </c>
-      <c r="D21" s="1">
+      <c r="E21" s="1">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21" s="1">
         <v>0.112</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>60</v>
       </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" t="s">
         <v>61</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="1">
+      <c r="D22" s="1">
         <v>1E-3</v>
       </c>
-      <c r="D22" s="1">
+      <c r="E22" s="1">
         <v>-2.1999999999999999E-2</v>
       </c>
-      <c r="E22" s="1">
+      <c r="F22" s="1">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>63</v>
       </c>
-      <c r="G22" s="1">
+      <c r="H22" s="1">
         <v>-3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" t="s">
         <v>64</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="1">
+      <c r="D23" s="1">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="D23" s="1">
+      <c r="E23" s="1">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="E23" s="1">
+      <c r="F23" s="1">
         <v>0.10299999999999999</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>66</v>
       </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" t="s">
         <v>67</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="1">
+      <c r="D24" s="1">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="D24" s="1">
+      <c r="E24" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E24" s="1">
+      <c r="F24" s="1">
         <v>0.17100000000000001</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>69</v>
       </c>
-      <c r="G24" s="1">
+      <c r="H24" s="1">
         <v>-7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" t="s">
         <v>70</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="1">
-        <v>0</v>
-      </c>
       <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
         <v>-1.2E-2</v>
       </c>
-      <c r="E25" s="1">
+      <c r="F25" s="1">
         <v>0.107</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>72</v>
       </c>
-      <c r="G25" s="1">
+      <c r="H25" s="1">
         <v>-1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" t="s">
         <v>73</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="1">
+      <c r="D26" s="1">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="D26" s="1">
+      <c r="E26" s="1">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="E26" s="1">
+      <c r="F26" s="1">
         <v>0.14799999999999999</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>75</v>
       </c>
-      <c r="G26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" t="s">
         <v>76</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="1">
+      <c r="D27" s="1">
         <v>2.7E-2</v>
       </c>
-      <c r="D27" s="1">
+      <c r="E27" s="1">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="E27" s="1">
+      <c r="F27" s="1">
         <v>0.08</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>78</v>
       </c>
-      <c r="G27" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="1">
+      <c r="D28" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="D28" s="1">
+      <c r="E28" s="1">
         <v>1.4E-2</v>
       </c>
-      <c r="E28" s="1">
+      <c r="F28" s="1">
         <v>0.16500000000000001</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>81</v>
       </c>
-      <c r="G28" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" t="s">
         <v>82</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="1">
+      <c r="D29" s="1">
         <v>1.9E-2</v>
       </c>
-      <c r="D29" s="1">
+      <c r="E29" s="1">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="E29" s="1">
+      <c r="F29" s="1">
         <v>0.222</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>84</v>
       </c>
-      <c r="G29" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" t="s">
         <v>85</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="1">
+      <c r="D30" s="1">
         <v>-2.5999999999999999E-2</v>
       </c>
-      <c r="D30" s="1">
+      <c r="E30" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E30" s="1">
+      <c r="F30" s="1">
         <v>0.193</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>87</v>
       </c>
-      <c r="G30" s="1">
+      <c r="H30" s="1">
         <v>-2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" t="s">
         <v>88</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="1">
+      <c r="D31" s="1">
         <v>2.3E-2</v>
       </c>
-      <c r="D31" s="1">
+      <c r="E31" s="1">
         <v>2.4E-2</v>
       </c>
-      <c r="E31" s="1">
+      <c r="F31" s="1">
         <v>0.16200000000000001</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>90</v>
       </c>
-      <c r="G31" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" t="s">
         <v>91</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="1">
+      <c r="D32" s="1">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="D32" s="1">
+      <c r="E32" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E32" s="1">
+      <c r="F32" s="1">
         <v>0.13800000000000001</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>93</v>
       </c>
-      <c r="G32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" t="s">
         <v>94</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>95</v>
       </c>
-      <c r="C33" s="1">
+      <c r="D33" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D33" s="1">
+      <c r="E33" s="1">
         <v>-8.9999999999999993E-3</v>
       </c>
-      <c r="E33" s="1">
+      <c r="F33" s="1">
         <v>0.155</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>96</v>
       </c>
-      <c r="G33" s="1">
+      <c r="H33" s="1">
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" t="s">
         <v>97</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>98</v>
       </c>
-      <c r="C34" s="1">
+      <c r="D34" s="1">
         <v>-3.0000000000000001E-3</v>
       </c>
-      <c r="D34" s="1">
+      <c r="E34" s="1">
         <v>1.6E-2</v>
       </c>
-      <c r="E34" s="1">
+      <c r="F34" s="1">
         <v>0.20599999999999999</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>99</v>
       </c>
-      <c r="G34" s="1">
+      <c r="H34" s="1">
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" t="s">
         <v>101</v>
       </c>
-      <c r="C35" s="1">
+      <c r="D35" s="1">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="D35" s="1">
+      <c r="E35" s="1">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="E35" s="1">
+      <c r="F35" s="1">
         <v>0.21199999999999999</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>102</v>
       </c>
-      <c r="G35" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" t="s">
         <v>103</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>104</v>
       </c>
-      <c r="C36" s="1">
+      <c r="D36" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="D36" s="1">
+      <c r="E36" s="1">
         <v>2.3E-2</v>
       </c>
-      <c r="E36" s="1">
+      <c r="F36" s="1">
         <v>0.155</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>105</v>
       </c>
-      <c r="G36" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" t="s">
         <v>106</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>107</v>
       </c>
-      <c r="C37" s="1">
+      <c r="D37" s="1">
         <v>0.04</v>
       </c>
-      <c r="D37" s="1">
+      <c r="E37" s="1">
         <v>2.7E-2</v>
       </c>
-      <c r="E37" s="1">
+      <c r="F37" s="1">
         <v>0.309</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>108</v>
       </c>
-      <c r="G37" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" t="s">
         <v>109</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>110</v>
       </c>
-      <c r="C38" s="1">
+      <c r="D38" s="1">
         <v>0.02</v>
       </c>
-      <c r="D38" s="1">
+      <c r="E38" s="1">
         <v>0.04</v>
       </c>
-      <c r="E38" s="1">
+      <c r="F38" s="1">
         <v>0.24399999999999999</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>111</v>
       </c>
-      <c r="G38" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" t="s">
         <v>112</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>113</v>
       </c>
-      <c r="C39" s="1">
+      <c r="D39" s="1">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="D39" s="1">
+      <c r="E39" s="1">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="E39" s="1">
+      <c r="F39" s="1">
         <v>0.26200000000000001</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>114</v>
       </c>
-      <c r="G39" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40" t="s">
         <v>115</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>116</v>
       </c>
-      <c r="C40" s="1">
+      <c r="D40" s="1">
         <v>2.3E-2</v>
       </c>
-      <c r="D40" s="1">
+      <c r="E40" s="1">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="E40" s="1">
+      <c r="F40" s="1">
         <v>0.20200000000000001</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>117</v>
       </c>
-      <c r="G40" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" t="s">
         <v>118</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>119</v>
       </c>
-      <c r="C41" s="1">
+      <c r="D41" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="D41" s="1">
+      <c r="E41" s="1">
         <v>1.6E-2</v>
       </c>
-      <c r="E41" s="1">
+      <c r="F41" s="1">
         <v>0.19400000000000001</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>120</v>
       </c>
-      <c r="G41" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" t="s">
         <v>122</v>
       </c>
-      <c r="C42" s="1">
+      <c r="D42" s="1">
         <v>0.01</v>
       </c>
-      <c r="D42" s="1">
+      <c r="E42" s="1">
         <v>3.9E-2</v>
       </c>
-      <c r="E42" s="1">
+      <c r="F42" s="1">
         <v>0.23200000000000001</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>123</v>
       </c>
-      <c r="G42" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B43" t="s">
         <v>124</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>125</v>
       </c>
-      <c r="C43" s="1">
+      <c r="D43" s="1">
         <v>-7.0000000000000001E-3</v>
       </c>
-      <c r="D43" s="1">
+      <c r="E43" s="1">
         <v>2E-3</v>
       </c>
-      <c r="E43" s="1">
+      <c r="F43" s="1">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>126</v>
       </c>
-      <c r="G43" s="1">
+      <c r="H43" s="1">
         <v>-2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B44" t="s">
         <v>127</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>128</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="1">
+      <c r="E44" s="1">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="E44" s="1">
+      <c r="F44" s="1">
         <v>0.26700000000000002</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>129</v>
       </c>
-      <c r="G44" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B45" t="s">
         <v>130</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>131</v>
       </c>
-      <c r="C45" s="1">
+      <c r="D45" s="1">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="D45" s="1">
+      <c r="E45" s="1">
         <v>6.2E-2</v>
       </c>
-      <c r="E45" s="1">
+      <c r="F45" s="1">
         <v>0.27200000000000002</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>132</v>
       </c>
-      <c r="G45" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B46" t="s">
         <v>133</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>134</v>
       </c>
-      <c r="C46" s="1">
+      <c r="D46" s="1">
         <v>2.4E-2</v>
       </c>
-      <c r="D46" s="1">
+      <c r="E46" s="1">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="E46" s="1">
+      <c r="F46" s="1">
         <v>0.19500000000000001</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>135</v>
       </c>
-      <c r="G46" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="H46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B47" t="s">
         <v>136</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>137</v>
       </c>
-      <c r="C47" s="1">
+      <c r="D47" s="1">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="D47" s="1">
+      <c r="E47" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E47" s="1">
+      <c r="F47" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>138</v>
       </c>
-      <c r="G47" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="H47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B48" t="s">
         <v>139</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>140</v>
       </c>
-      <c r="C48" s="1">
-        <v>0</v>
-      </c>
       <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
         <v>2E-3</v>
       </c>
-      <c r="E48" s="1">
+      <c r="F48" s="1">
         <v>0.20799999999999999</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>141</v>
       </c>
-      <c r="G48" s="1">
+      <c r="H48" s="1">
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B49" t="s">
         <v>142</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>143</v>
       </c>
-      <c r="C49" s="1">
+      <c r="D49" s="1">
         <v>-4.2000000000000003E-2</v>
       </c>
-      <c r="D49" s="1">
+      <c r="E49" s="1">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E49" s="1">
+      <c r="F49" s="1">
         <v>0.27700000000000002</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>144</v>
       </c>
-      <c r="G49" s="1">
+      <c r="H49" s="1">
         <v>-4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" t="s">
         <v>145</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>146</v>
       </c>
-      <c r="C50" s="1">
+      <c r="D50" s="1">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="D50" s="1">
+      <c r="E50" s="1">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="E50" s="1">
+      <c r="F50" s="1">
         <v>0.37</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>147</v>
       </c>
-      <c r="G50" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C51" t="s">
         <v>149</v>
       </c>
-      <c r="C51" s="1">
+      <c r="D51" s="1">
         <v>3.1E-2</v>
       </c>
-      <c r="D51" s="1">
+      <c r="E51" s="1">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="E51" s="1">
+      <c r="F51" s="1">
         <v>0.221</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>150</v>
       </c>
-      <c r="G51" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="H51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B52" t="s">
         <v>151</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>152</v>
       </c>
-      <c r="C52" s="1">
+      <c r="D52" s="1">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="D52" s="1">
+      <c r="E52" s="1">
         <v>0.115</v>
       </c>
-      <c r="E52" s="1">
+      <c r="F52" s="1">
         <v>0.161</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>153</v>
       </c>
-      <c r="G52" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="H52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B53" t="s">
         <v>154</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>155</v>
       </c>
-      <c r="C53" s="1">
+      <c r="D53" s="1">
         <v>1.6E-2</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>17</v>
       </c>
-      <c r="E53" s="1">
+      <c r="F53" s="1">
         <v>0.23100000000000001</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>156</v>
       </c>
-      <c r="G53" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="H53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B54" t="s">
         <v>157</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>158</v>
       </c>
-      <c r="C54" s="1">
+      <c r="D54" s="1">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="D54" s="1">
+      <c r="E54" s="1">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="E54" s="1">
+      <c r="F54" s="1">
         <v>0.219</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>159</v>
       </c>
-      <c r="G54" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="H54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B55" t="s">
         <v>160</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>161</v>
       </c>
-      <c r="C55" s="1">
+      <c r="D55" s="1">
         <v>2E-3</v>
       </c>
-      <c r="D55" s="1">
+      <c r="E55" s="1">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="E55" s="1">
+      <c r="F55" s="1">
         <v>0.125</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>162</v>
       </c>
-      <c r="G55" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="H55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B56" t="s">
         <v>163</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>164</v>
       </c>
-      <c r="C56" s="1">
-        <v>0</v>
-      </c>
       <c r="D56" s="1">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="E56" s="1">
+      <c r="F56" s="1">
         <v>0.35899999999999999</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>165</v>
       </c>
-      <c r="G56" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="H56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B57" t="s">
         <v>166</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>167</v>
       </c>
-      <c r="C57" s="1">
+      <c r="D57" s="1">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="D57" s="1">
+      <c r="E57" s="1">
         <v>-1.4E-2</v>
       </c>
-      <c r="E57" s="1">
+      <c r="F57" s="1">
         <v>0.26500000000000001</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>168</v>
       </c>
-      <c r="G57" s="1">
+      <c r="H57" s="1">
         <v>-1.4E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C58" t="s">
         <v>170</v>
       </c>
-      <c r="C58" s="1">
+      <c r="D58" s="1">
         <v>-6.0000000000000001E-3</v>
       </c>
-      <c r="D58" s="1">
+      <c r="E58" s="1">
         <v>2E-3</v>
       </c>
-      <c r="E58" s="1">
+      <c r="F58" s="1">
         <v>0.127</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>171</v>
       </c>
-      <c r="G58" s="1">
+      <c r="H58" s="1">
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B59" t="s">
         <v>172</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>173</v>
       </c>
-      <c r="C59" s="1">
+      <c r="D59" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="D59" s="1">
+      <c r="E59" s="1">
         <v>1.9E-2</v>
       </c>
-      <c r="E59" s="1">
+      <c r="F59" s="1">
         <v>0.20899999999999999</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>174</v>
       </c>
-      <c r="G59" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="H59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B60" t="s">
         <v>175</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>176</v>
       </c>
-      <c r="C60" s="1">
+      <c r="D60" s="1">
         <v>-1.4E-2</v>
       </c>
-      <c r="D60" s="1">
-        <v>0</v>
-      </c>
       <c r="E60" s="1">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1">
         <v>0.13800000000000001</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>177</v>
       </c>
-      <c r="G60" s="1">
+      <c r="H60" s="1">
         <v>-3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B61" t="s">
         <v>178</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>179</v>
       </c>
-      <c r="C61" s="1">
+      <c r="D61" s="1">
         <v>1E-3</v>
       </c>
-      <c r="D61" s="1">
+      <c r="E61" s="1">
         <v>2.3E-2</v>
       </c>
-      <c r="E61" s="1">
+      <c r="F61" s="1">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>180</v>
       </c>
-      <c r="G61" s="1">
+      <c r="H61" s="1">
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B62" t="s">
         <v>181</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>182</v>
       </c>
-      <c r="C62" s="1">
+      <c r="D62" s="1">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="D62" s="1">
+      <c r="E62" s="1">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="E62" s="1">
+      <c r="F62" s="1">
         <v>0.20499999999999999</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>183</v>
       </c>
-      <c r="G62" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="H62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B63" t="s">
         <v>184</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>185</v>
       </c>
-      <c r="C63" s="1">
+      <c r="D63" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="D63" s="1">
+      <c r="E63" s="1">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="E63" s="1">
+      <c r="F63" s="1">
         <v>0.216</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>186</v>
       </c>
-      <c r="G63" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="H63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B64" t="s">
         <v>187</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>188</v>
       </c>
-      <c r="C64" s="1">
+      <c r="D64" s="1">
         <v>-1.0999999999999999E-2</v>
       </c>
-      <c r="D64" s="1">
+      <c r="E64" s="1">
         <v>1.9E-2</v>
       </c>
-      <c r="E64" s="1">
+      <c r="F64" s="1">
         <v>0.124</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>189</v>
       </c>
-      <c r="G64" s="1">
+      <c r="H64" s="1">
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B65" t="s">
         <v>190</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>191</v>
       </c>
-      <c r="C65" s="1">
+      <c r="D65" s="1">
         <v>-2.1999999999999999E-2</v>
       </c>
-      <c r="D65" s="1">
+      <c r="E65" s="1">
         <v>-0.01</v>
       </c>
-      <c r="E65" s="1">
+      <c r="F65" s="1">
         <v>0.08</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>192</v>
       </c>
-      <c r="G65" s="1">
+      <c r="H65" s="1">
         <v>-4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C66" t="s">
         <v>194</v>
       </c>
-      <c r="C66" s="1">
+      <c r="D66" s="1">
         <v>2E-3</v>
       </c>
-      <c r="D66" s="1">
+      <c r="E66" s="1">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="E66" s="1">
+      <c r="F66" s="1">
         <v>0.23599999999999999</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>195</v>
       </c>
-      <c r="G66" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="H66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B67" t="s">
         <v>196</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>197</v>
       </c>
-      <c r="C67" s="1">
+      <c r="D67" s="1">
         <v>2.3E-2</v>
       </c>
-      <c r="D67" s="1">
+      <c r="E67" s="1">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="E67" s="1">
+      <c r="F67" s="1">
         <v>0.29299999999999998</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>198</v>
       </c>
-      <c r="G67" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="H67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B68" t="s">
         <v>199</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>200</v>
       </c>
-      <c r="C68" s="1">
+      <c r="D68" s="1">
         <v>-1.7000000000000001E-2</v>
       </c>
-      <c r="D68" s="1">
+      <c r="E68" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="E68" s="1">
+      <c r="F68" s="1">
         <v>0.251</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>201</v>
       </c>
-      <c r="G68" s="1">
+      <c r="H68" s="1">
         <v>-1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B69" t="s">
         <v>202</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>203</v>
       </c>
-      <c r="C69" s="1">
+      <c r="D69" s="1">
         <v>-4.0000000000000001E-3</v>
       </c>
-      <c r="D69" s="1">
+      <c r="E69" s="1">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="E69" s="1">
+      <c r="F69" s="1">
         <v>0.25700000000000001</v>
       </c>
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>204</v>
       </c>
-      <c r="G69" s="1">
+      <c r="H69" s="1">
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B70" t="s">
         <v>205</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>206</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>17</v>
       </c>
-      <c r="D70" s="1">
+      <c r="E70" s="1">
         <v>0.105</v>
       </c>
-      <c r="E70" s="1">
+      <c r="F70" s="1">
         <v>0.38200000000000001</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>207</v>
       </c>
-      <c r="G70" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="H70" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B71" t="s">
         <v>208</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>209</v>
       </c>
-      <c r="C71" s="1">
+      <c r="D71" s="1">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="D71" s="1">
+      <c r="E71" s="1">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="E71" s="1">
+      <c r="F71" s="1">
         <v>0.20899999999999999</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>210</v>
       </c>
-      <c r="G71" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="H71" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B72" t="s">
         <v>211</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>212</v>
-      </c>
-      <c r="C72" s="1">
-        <v>1E-3</v>
       </c>
       <c r="D72" s="1">
         <v>1E-3</v>
       </c>
       <c r="E72" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F72" s="1">
         <v>0.184</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>213</v>
       </c>
-      <c r="G72" s="1">
+      <c r="H72" s="1">
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C73" t="s">
         <v>215</v>
       </c>
-      <c r="C73" s="1">
+      <c r="D73" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D73" s="1">
+      <c r="E73" s="1">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="E73" s="1">
+      <c r="F73" s="1">
         <v>0.21199999999999999</v>
       </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>216</v>
       </c>
-      <c r="G73" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="H73" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B74" t="s">
         <v>217</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>218</v>
       </c>
-      <c r="C74" s="1">
+      <c r="D74" s="1">
         <v>-1E-3</v>
       </c>
-      <c r="D74" s="1">
+      <c r="E74" s="1">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="E74" s="1">
+      <c r="F74" s="1">
         <v>9.4E-2</v>
       </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>219</v>
       </c>
-      <c r="G74" s="1">
+      <c r="H74" s="1">
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B75" t="s">
         <v>220</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>221</v>
       </c>
-      <c r="C75" s="1">
-        <v>0</v>
-      </c>
       <c r="D75" s="1">
+        <v>0</v>
+      </c>
+      <c r="E75" s="1">
         <v>1.4E-2</v>
       </c>
-      <c r="E75" s="1">
+      <c r="F75" s="1">
         <v>0.19700000000000001</v>
       </c>
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>222</v>
       </c>
-      <c r="G75" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="H75" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B76" t="s">
         <v>223</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>224</v>
       </c>
-      <c r="C76" s="1">
+      <c r="D76" s="1">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="D76" s="1">
+      <c r="E76" s="1">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>17</v>
       </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>225</v>
       </c>
-      <c r="G76" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="H76" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B77" t="s">
         <v>226</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>227</v>
       </c>
-      <c r="C77" s="1">
+      <c r="D77" s="1">
         <v>-4.9000000000000002E-2</v>
       </c>
-      <c r="D77" s="1">
+      <c r="E77" s="1">
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="E77" s="1">
+      <c r="F77" s="1">
         <v>0.13600000000000001</v>
       </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>228</v>
       </c>
-      <c r="G77" s="1">
+      <c r="H77" s="1">
         <v>-4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B78" t="s">
         <v>229</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>230</v>
       </c>
-      <c r="C78" s="1">
+      <c r="D78" s="1">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="D78" s="1">
+      <c r="E78" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E78" s="1">
+      <c r="F78" s="1">
         <v>0.27100000000000002</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>231</v>
       </c>
-      <c r="G78" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="H78" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B79" t="s">
         <v>232</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>233</v>
       </c>
-      <c r="C79" s="1">
+      <c r="D79" s="1">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="D79" s="1">
+      <c r="E79" s="1">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="E79" s="1">
+      <c r="F79" s="1">
         <v>0.111</v>
       </c>
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>234</v>
       </c>
-      <c r="G79" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="H79" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B80" t="s">
         <v>235</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>236</v>
       </c>
-      <c r="C80" s="1">
+      <c r="D80" s="1">
         <v>-1E-3</v>
       </c>
-      <c r="D80" s="1">
+      <c r="E80" s="1">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="E80" s="1">
+      <c r="F80" s="1">
         <v>0.29899999999999999</v>
       </c>
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>237</v>
       </c>
-      <c r="G80" s="1">
+      <c r="H80" s="1">
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C81" t="s">
         <v>239</v>
       </c>
-      <c r="C81" s="1">
+      <c r="D81" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="D81" s="1">
+      <c r="E81" s="1">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="E81" s="1">
+      <c r="F81" s="1">
         <v>0.22600000000000001</v>
       </c>
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>240</v>
       </c>
-      <c r="G81" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="H81" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B82" t="s">
         <v>241</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>242</v>
       </c>
-      <c r="C82" s="1">
+      <c r="D82" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="D82" s="1">
+      <c r="E82" s="1">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="E82" s="1">
+      <c r="F82" s="1">
         <v>0.216</v>
       </c>
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>243</v>
       </c>
-      <c r="G82" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="H82" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B83" t="s">
         <v>244</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>245</v>
       </c>
-      <c r="C83" s="1">
+      <c r="D83" s="1">
         <v>-0.02</v>
       </c>
-      <c r="D83" s="1">
+      <c r="E83" s="1">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="E83" s="1">
+      <c r="F83" s="1">
         <v>0.23899999999999999</v>
       </c>
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>246</v>
       </c>
-      <c r="G83" s="1">
+      <c r="H83" s="1">
         <v>-0.02</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B84" t="s">
         <v>247</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>248</v>
-      </c>
-      <c r="C84" t="s">
-        <v>17</v>
       </c>
       <c r="D84" t="s">
         <v>17</v>
       </c>
-      <c r="E84" s="1">
+      <c r="E84" t="s">
+        <v>17</v>
+      </c>
+      <c r="F84" s="1">
         <v>0.223</v>
       </c>
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>249</v>
       </c>
-      <c r="G84" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="H84" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B85" t="s">
         <v>250</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>251</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>17</v>
       </c>
-      <c r="D85" s="1">
+      <c r="E85" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>17</v>
       </c>
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>252</v>
       </c>
-      <c r="G85" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H85" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C86" t="s">
         <v>254</v>
       </c>
-      <c r="C86" s="1">
+      <c r="D86" s="1">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="D86" s="1">
+      <c r="E86" s="1">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="E86" s="1">
+      <c r="F86" s="1">
         <v>0.23200000000000001</v>
       </c>
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>255</v>
       </c>
-      <c r="G86" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="H86" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B87" t="s">
         <v>256</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>257</v>
       </c>
-      <c r="C87" s="1">
+      <c r="D87" s="1">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="D87" s="1">
+      <c r="E87" s="1">
         <v>6.2E-2</v>
       </c>
-      <c r="E87" s="1">
+      <c r="F87" s="1">
         <v>0.23400000000000001</v>
       </c>
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>258</v>
       </c>
-      <c r="G87" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="H87" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B88" t="s">
         <v>259</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>260</v>
       </c>
-      <c r="C88" s="1">
+      <c r="D88" s="1">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="D88" s="1">
+      <c r="E88" s="1">
         <v>6.3E-2</v>
       </c>
-      <c r="E88" s="1">
+      <c r="F88" s="1">
         <v>0.26100000000000001</v>
       </c>
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>261</v>
       </c>
-      <c r="G88" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="H88" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B89" t="s">
         <v>262</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>263</v>
       </c>
-      <c r="C89" s="1">
+      <c r="D89" s="1">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="D89" s="1">
+      <c r="E89" s="1">
         <v>0.04</v>
       </c>
-      <c r="E89" s="1">
+      <c r="F89" s="1">
         <v>0.23899999999999999</v>
       </c>
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>264</v>
       </c>
-      <c r="G89" s="1">
+      <c r="H89" s="1">
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B90" t="s">
         <v>265</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>266</v>
       </c>
-      <c r="C90" s="1">
+      <c r="D90" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="D90" s="1">
+      <c r="E90" s="1">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="E90" s="1">
+      <c r="F90" s="1">
         <v>0.29899999999999999</v>
       </c>
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>267</v>
       </c>
-      <c r="G90" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="H90" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B91" t="s">
         <v>268</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>269</v>
       </c>
-      <c r="C91" s="1">
+      <c r="D91" s="1">
         <v>1.4E-2</v>
       </c>
-      <c r="D91" s="1">
+      <c r="E91" s="1">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="E91" s="1">
+      <c r="F91" s="1">
         <v>0.221</v>
       </c>
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>270</v>
       </c>
-      <c r="G91" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H91" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C92" t="s">
         <v>272</v>
       </c>
-      <c r="C92" s="1">
+      <c r="D92" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D92" s="1">
+      <c r="E92" s="1">
         <v>-2E-3</v>
       </c>
-      <c r="E92" s="1">
+      <c r="F92" s="1">
         <v>0.22500000000000001</v>
       </c>
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>273</v>
       </c>
-      <c r="G92" s="1">
+      <c r="H92" s="1">
         <v>-8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B93" t="s">
         <v>274</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>275</v>
       </c>
-      <c r="C93" s="1">
+      <c r="D93" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D93" s="1">
+      <c r="E93" s="1">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="E93" s="1">
+      <c r="F93" s="1">
         <v>0.18099999999999999</v>
       </c>
-      <c r="F93" t="s">
+      <c r="G93" t="s">
         <v>276</v>
       </c>
-      <c r="G93" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="H93" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B94" t="s">
         <v>277</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>278</v>
       </c>
-      <c r="C94" s="1">
+      <c r="D94" s="1">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="D94" s="1">
+      <c r="E94" s="1">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="E94" s="1">
+      <c r="F94" s="1">
         <v>0.26900000000000002</v>
       </c>
-      <c r="F94" t="s">
+      <c r="G94" t="s">
         <v>279</v>
       </c>
-      <c r="G94" s="1">
+      <c r="H94" s="1">
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B95" t="s">
         <v>280</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>281</v>
       </c>
-      <c r="C95" s="1">
+      <c r="D95" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D95" s="1">
+      <c r="E95" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="E95" s="1">
+      <c r="F95" s="1">
         <v>0.16400000000000001</v>
       </c>
-      <c r="F95" t="s">
+      <c r="G95" t="s">
         <v>282</v>
       </c>
-      <c r="G95" s="1">
+      <c r="H95" s="1">
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B96" t="s">
         <v>283</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
         <v>284</v>
       </c>
-      <c r="C96" s="1">
+      <c r="D96" s="1">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="D96" s="1">
+      <c r="E96" s="1">
         <v>-2E-3</v>
       </c>
-      <c r="E96" s="1">
+      <c r="F96" s="1">
         <v>2E-3</v>
       </c>
-      <c r="F96" t="s">
+      <c r="G96" t="s">
         <v>285</v>
       </c>
-      <c r="G96" s="1">
+      <c r="H96" s="1">
         <v>-8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B97" t="s">
         <v>286</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>287</v>
       </c>
-      <c r="C97" s="1">
+      <c r="D97" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="D97" s="1">
+      <c r="E97" s="1">
         <v>-2.5000000000000001E-2</v>
       </c>
-      <c r="E97" s="1">
+      <c r="F97" s="1">
         <v>0.19900000000000001</v>
       </c>
-      <c r="F97" t="s">
+      <c r="G97" t="s">
         <v>288</v>
       </c>
-      <c r="G97" s="1">
+      <c r="H97" s="1">
         <v>-2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B98" t="s">
         <v>289</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>290</v>
       </c>
-      <c r="C98" s="1">
+      <c r="D98" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="D98" s="1">
+      <c r="E98" s="1">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="E98" s="1">
+      <c r="F98" s="1">
         <v>0.29899999999999999</v>
       </c>
-      <c r="F98" t="s">
+      <c r="G98" t="s">
         <v>291</v>
       </c>
-      <c r="G98" s="1">
+      <c r="H98" s="1">
         <v>-7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C99" t="s">
         <v>293</v>
       </c>
-      <c r="C99" s="1">
+      <c r="D99" s="1">
         <v>0.02</v>
       </c>
-      <c r="D99" s="1">
+      <c r="E99" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="E99" s="1">
+      <c r="F99" s="1">
         <v>0.151</v>
       </c>
-      <c r="F99" t="s">
+      <c r="G99" t="s">
         <v>294</v>
       </c>
-      <c r="G99" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="H99" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B100" t="s">
         <v>295</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>296</v>
       </c>
-      <c r="C100" s="1">
+      <c r="D100" s="1">
         <v>0.01</v>
       </c>
-      <c r="D100" s="1">
+      <c r="E100" s="1">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="E100" s="1">
+      <c r="F100" s="1">
         <v>0.14599999999999999</v>
       </c>
-      <c r="F100" t="s">
+      <c r="G100" t="s">
         <v>297</v>
       </c>
-      <c r="G100" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="H100" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B101" t="s">
         <v>298</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
         <v>299</v>
       </c>
-      <c r="C101" s="1">
+      <c r="D101" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="D101" s="1">
+      <c r="E101" s="1">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="E101" s="1">
+      <c r="F101" s="1">
         <v>0.26400000000000001</v>
       </c>
-      <c r="F101" t="s">
+      <c r="G101" t="s">
         <v>300</v>
       </c>
-      <c r="G101" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="H101" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B102" t="s">
         <v>301</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" t="s">
         <v>302</v>
       </c>
-      <c r="C102" s="1">
-        <v>0</v>
-      </c>
       <c r="D102" s="1">
+        <v>0</v>
+      </c>
+      <c r="E102" s="1">
         <v>-8.0000000000000002E-3</v>
       </c>
-      <c r="E102" s="1">
+      <c r="F102" s="1">
         <v>0.159</v>
       </c>
-      <c r="F102" t="s">
+      <c r="G102" t="s">
         <v>303</v>
       </c>
-      <c r="G102" s="1">
+      <c r="H102" s="1">
         <v>-1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B103" t="s">
         <v>304</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
         <v>305</v>
       </c>
-      <c r="C103" s="1">
+      <c r="D103" s="1">
         <v>2.4E-2</v>
       </c>
-      <c r="D103" s="1">
+      <c r="E103" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="E103" s="1">
+      <c r="F103" s="1">
         <v>0.21199999999999999</v>
       </c>
-      <c r="F103" t="s">
+      <c r="G103" t="s">
         <v>306</v>
       </c>
-      <c r="G103" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="H103" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B104" t="s">
         <v>307</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
         <v>308</v>
       </c>
-      <c r="C104" s="1">
+      <c r="D104" s="1">
         <v>3.1E-2</v>
       </c>
-      <c r="D104" s="1">
+      <c r="E104" s="1">
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="E104" s="1">
+      <c r="F104" s="1">
         <v>0.191</v>
       </c>
-      <c r="F104" t="s">
+      <c r="G104" t="s">
         <v>309</v>
       </c>
-      <c r="G104" s="1">
+      <c r="H104" s="1">
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B105" t="s">
         <v>310</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>311</v>
       </c>
-      <c r="C105" s="1">
+      <c r="D105" s="1">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="D105" s="1">
+      <c r="E105" s="1">
         <v>-8.0000000000000002E-3</v>
       </c>
-      <c r="E105" s="1">
+      <c r="F105" s="1">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="F105" t="s">
+      <c r="G105" t="s">
         <v>312</v>
       </c>
-      <c r="G105" s="1">
+      <c r="H105" s="1">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C106" t="s">
         <v>314</v>
       </c>
-      <c r="C106" s="1">
+      <c r="D106" s="1">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="D106" s="1">
+      <c r="E106" s="1">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="E106" s="1">
+      <c r="F106" s="1">
         <v>0.22700000000000001</v>
       </c>
-      <c r="F106" t="s">
+      <c r="G106" t="s">
         <v>315</v>
       </c>
-      <c r="G106" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="H106" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B107" t="s">
         <v>316</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
         <v>317</v>
       </c>
-      <c r="C107" s="1">
+      <c r="D107" s="1">
         <v>1.6E-2</v>
       </c>
-      <c r="D107" s="1">
+      <c r="E107" s="1">
         <v>2.3E-2</v>
       </c>
-      <c r="E107" s="1">
+      <c r="F107" s="1">
         <v>0.35499999999999998</v>
       </c>
-      <c r="F107" t="s">
+      <c r="G107" t="s">
         <v>318</v>
       </c>
-      <c r="G107" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="H107" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B108" t="s">
         <v>319</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" t="s">
         <v>320</v>
       </c>
-      <c r="C108" s="1">
+      <c r="D108" s="1">
         <v>1.9E-2</v>
       </c>
-      <c r="D108" s="1">
+      <c r="E108" s="1">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="E108" s="1">
+      <c r="F108" s="1">
         <v>0.29099999999999998</v>
       </c>
-      <c r="F108" t="s">
+      <c r="G108" t="s">
         <v>321</v>
       </c>
-      <c r="G108" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="H108" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B109" t="s">
         <v>322</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
         <v>323</v>
       </c>
-      <c r="C109" s="1">
+      <c r="D109" s="1">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="D109" s="1">
+      <c r="E109" s="1">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="E109" s="1">
+      <c r="F109" s="1">
         <v>0.29799999999999999</v>
       </c>
-      <c r="F109" t="s">
+      <c r="G109" t="s">
         <v>324</v>
       </c>
-      <c r="G109" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="H109" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B110" t="s">
         <v>325</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
         <v>326</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>17</v>
       </c>
-      <c r="D110" s="1">
+      <c r="E110" s="1">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="E110" s="1">
+      <c r="F110" s="1">
         <v>0.36399999999999999</v>
       </c>
-      <c r="F110" t="s">
+      <c r="G110" t="s">
         <v>327</v>
       </c>
-      <c r="G110" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="H110" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B111" t="s">
         <v>328</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
         <v>329</v>
       </c>
-      <c r="C111" s="1">
+      <c r="D111" s="1">
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="D111" s="1">
+      <c r="E111" s="1">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="E111" s="1">
+      <c r="F111" s="1">
         <v>0.21299999999999999</v>
       </c>
-      <c r="F111" t="s">
+      <c r="G111" t="s">
         <v>330</v>
       </c>
-      <c r="G111" s="1">
+      <c r="H111" s="1">
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B112" t="s">
         <v>331</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" t="s">
         <v>332</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
         <v>17</v>
       </c>
-      <c r="D112" s="1">
+      <c r="E112" s="1">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="E112" s="1">
+      <c r="F112" s="1">
         <v>0.30399999999999999</v>
       </c>
-      <c r="F112" t="s">
+      <c r="G112" t="s">
         <v>333</v>
       </c>
-      <c r="G112" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="H112" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B113" t="s">
         <v>334</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C113" t="s">
         <v>335</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
         <v>17</v>
       </c>
-      <c r="D113" s="1">
+      <c r="E113" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="E113" s="1">
+      <c r="F113" s="1">
         <v>0.246</v>
       </c>
-      <c r="F113" t="s">
+      <c r="G113" t="s">
         <v>336</v>
       </c>
-      <c r="G113" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="H113" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B114" t="s">
         <v>337</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" t="s">
         <v>338</v>
       </c>
-      <c r="C114" s="1">
+      <c r="D114" s="1">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="D114" s="1">
+      <c r="E114" s="1">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="E114" s="1">
+      <c r="F114" s="1">
         <v>0.20200000000000001</v>
       </c>
-      <c r="F114" t="s">
+      <c r="G114" t="s">
         <v>339</v>
       </c>
-      <c r="G114" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H114" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C115" t="s">
         <v>341</v>
       </c>
-      <c r="C115" s="1">
+      <c r="D115" s="1">
         <v>-1E-3</v>
       </c>
-      <c r="D115" s="1">
+      <c r="E115" s="1">
         <v>2.4E-2</v>
       </c>
-      <c r="E115" s="1">
+      <c r="F115" s="1">
         <v>0.14599999999999999</v>
       </c>
-      <c r="F115" t="s">
+      <c r="G115" t="s">
         <v>342</v>
       </c>
-      <c r="G115" s="1">
+      <c r="H115" s="1">
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B116" t="s">
         <v>343</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C116" t="s">
         <v>344</v>
       </c>
-      <c r="C116" s="1">
+      <c r="D116" s="1">
         <v>-1.4E-2</v>
       </c>
-      <c r="D116" s="1">
+      <c r="E116" s="1">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="E116" s="1">
+      <c r="F116" s="1">
         <v>0.16700000000000001</v>
       </c>
-      <c r="F116" t="s">
+      <c r="G116" t="s">
         <v>345</v>
       </c>
-      <c r="G116" s="1">
+      <c r="H116" s="1">
         <v>-1.4E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B117" t="s">
         <v>346</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C117" t="s">
         <v>347</v>
       </c>
-      <c r="C117" s="1">
+      <c r="D117" s="1">
         <v>-2E-3</v>
       </c>
-      <c r="D117" s="1">
+      <c r="E117" s="1">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="E117" s="1">
+      <c r="F117" s="1">
         <v>0.158</v>
       </c>
-      <c r="F117" t="s">
+      <c r="G117" t="s">
         <v>348</v>
       </c>
-      <c r="G117" s="1">
+      <c r="H117" s="1">
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B118" t="s">
         <v>349</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C118" t="s">
         <v>350</v>
       </c>
-      <c r="C118" s="1">
+      <c r="D118" s="1">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="D118" s="1">
+      <c r="E118" s="1">
         <v>5.5E-2</v>
       </c>
-      <c r="E118" s="1">
+      <c r="F118" s="1">
         <v>0.14199999999999999</v>
       </c>
-      <c r="F118" t="s">
+      <c r="G118" t="s">
         <v>351</v>
       </c>
-      <c r="G118" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="H118" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B119" t="s">
         <v>352</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" t="s">
         <v>353</v>
       </c>
-      <c r="C119" s="1">
+      <c r="D119" s="1">
         <v>2.7E-2</v>
       </c>
-      <c r="D119" s="1">
+      <c r="E119" s="1">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="E119" s="1">
+      <c r="F119" s="1">
         <v>0.23499999999999999</v>
       </c>
-      <c r="F119" t="s">
+      <c r="G119" t="s">
         <v>354</v>
       </c>
-      <c r="G119" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="H119" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B120" t="s">
         <v>355</v>
       </c>
-      <c r="B120" t="s">
+      <c r="C120" t="s">
         <v>356</v>
       </c>
-      <c r="C120" s="1">
-        <v>0</v>
-      </c>
       <c r="D120" s="1">
+        <v>0</v>
+      </c>
+      <c r="E120" s="1">
         <v>2.3E-2</v>
       </c>
-      <c r="E120" s="1">
+      <c r="F120" s="1">
         <v>0.16600000000000001</v>
       </c>
-      <c r="F120" t="s">
+      <c r="G120" t="s">
         <v>357</v>
       </c>
-      <c r="G120" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="H120" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B121" t="s">
         <v>358</v>
       </c>
-      <c r="B121" t="s">
+      <c r="C121" t="s">
         <v>359</v>
       </c>
-      <c r="C121" s="1">
+      <c r="D121" s="1">
         <v>-2E-3</v>
       </c>
-      <c r="D121" s="1">
+      <c r="E121" s="1">
         <v>-2.5000000000000001E-2</v>
       </c>
-      <c r="E121" s="1">
+      <c r="F121" s="1">
         <v>0.16400000000000001</v>
       </c>
-      <c r="F121" t="s">
+      <c r="G121" t="s">
         <v>360</v>
       </c>
-      <c r="G121" s="1">
+      <c r="H121" s="1">
         <v>-2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C122" t="s">
         <v>362</v>
       </c>
-      <c r="C122" s="1">
+      <c r="D122" s="1">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="D122" s="1">
+      <c r="E122" s="1">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="E122" s="1">
+      <c r="F122" s="1">
         <v>0.20200000000000001</v>
       </c>
-      <c r="F122" t="s">
+      <c r="G122" t="s">
         <v>363</v>
       </c>
-      <c r="G122" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="H122" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B123" t="s">
         <v>364</v>
       </c>
-      <c r="B123" t="s">
+      <c r="C123" t="s">
         <v>365</v>
       </c>
-      <c r="C123" s="1">
+      <c r="D123" s="1">
         <v>-1.4E-2</v>
       </c>
-      <c r="D123" s="1">
+      <c r="E123" s="1">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="E123" s="1">
+      <c r="F123" s="1">
         <v>0.216</v>
       </c>
-      <c r="F123" t="s">
+      <c r="G123" t="s">
         <v>366</v>
       </c>
-      <c r="G123" s="1">
+      <c r="H123" s="1">
         <v>-1.4E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B124" t="s">
         <v>367</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C124" t="s">
         <v>368</v>
       </c>
-      <c r="C124" s="1">
+      <c r="D124" s="1">
         <v>2.3E-2</v>
       </c>
-      <c r="D124" s="1">
+      <c r="E124" s="1">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E124" s="1">
+      <c r="F124" s="1">
         <v>0.13700000000000001</v>
       </c>
-      <c r="F124" t="s">
+      <c r="G124" t="s">
         <v>369</v>
       </c>
-      <c r="G124" s="1">
+      <c r="H124" s="1">
         <v>-8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B125" t="s">
         <v>370</v>
       </c>
-      <c r="B125" t="s">
+      <c r="C125" t="s">
         <v>371</v>
       </c>
-      <c r="C125" s="1">
+      <c r="D125" s="1">
         <v>2.4E-2</v>
       </c>
-      <c r="D125" s="1">
+      <c r="E125" s="1">
         <v>3.9E-2</v>
       </c>
-      <c r="E125" s="1">
+      <c r="F125" s="1">
         <v>0.27100000000000002</v>
       </c>
-      <c r="F125" t="s">
+      <c r="G125" t="s">
         <v>372</v>
       </c>
-      <c r="G125" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="H125" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B126" t="s">
         <v>373</v>
       </c>
-      <c r="B126" t="s">
+      <c r="C126" t="s">
         <v>374</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
         <v>17</v>
       </c>
-      <c r="D126" s="1">
+      <c r="E126" s="1">
         <v>0.106</v>
       </c>
-      <c r="E126" s="1">
+      <c r="F126" s="1">
         <v>0.23200000000000001</v>
       </c>
-      <c r="F126" t="s">
+      <c r="G126" t="s">
         <v>375</v>
       </c>
-      <c r="G126" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="H126" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B127" t="s">
         <v>376</v>
       </c>
-      <c r="B127" t="s">
+      <c r="C127" t="s">
         <v>377</v>
       </c>
-      <c r="C127" s="1">
+      <c r="D127" s="1">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="D127" s="1">
+      <c r="E127" s="1">
         <v>5.5E-2</v>
       </c>
-      <c r="E127" s="1">
+      <c r="F127" s="1">
         <v>0.249</v>
       </c>
-      <c r="F127" t="s">
+      <c r="G127" t="s">
         <v>378</v>
       </c>
-      <c r="G127" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="H127" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B128" t="s">
         <v>379</v>
       </c>
-      <c r="B128" t="s">
+      <c r="C128" t="s">
         <v>380</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
         <v>17</v>
       </c>
-      <c r="D128" s="1">
+      <c r="E128" s="1">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="E128" s="1">
+      <c r="F128" s="1">
         <v>0.14399999999999999</v>
       </c>
-      <c r="F128" t="s">
+      <c r="G128" t="s">
         <v>381</v>
       </c>
-      <c r="G128" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H128" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C129" t="s">
         <v>383</v>
       </c>
-      <c r="C129" s="1">
-        <v>0</v>
-      </c>
       <c r="D129" s="1">
+        <v>0</v>
+      </c>
+      <c r="E129" s="1">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="E129" s="1">
+      <c r="F129" s="1">
         <v>0.127</v>
       </c>
-      <c r="F129" t="s">
+      <c r="G129" t="s">
         <v>384</v>
       </c>
-      <c r="G129" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="H129" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B130" t="s">
         <v>385</v>
       </c>
-      <c r="B130" t="s">
+      <c r="C130" t="s">
         <v>386</v>
-      </c>
-      <c r="C130" t="s">
-        <v>17</v>
       </c>
       <c r="D130" t="s">
         <v>17</v>
       </c>
-      <c r="E130" s="1">
+      <c r="E130" t="s">
+        <v>17</v>
+      </c>
+      <c r="F130" s="1">
         <v>0.42399999999999999</v>
       </c>
-      <c r="F130" t="s">
+      <c r="G130" t="s">
         <v>387</v>
       </c>
-      <c r="G130" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="H130" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B131" t="s">
         <v>388</v>
       </c>
-      <c r="B131" t="s">
+      <c r="C131" t="s">
         <v>389</v>
       </c>
-      <c r="C131" s="1">
+      <c r="D131" s="1">
         <v>-8.0000000000000002E-3</v>
       </c>
-      <c r="D131" s="1">
+      <c r="E131" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="E131" s="1">
+      <c r="F131" s="1">
         <v>0.19800000000000001</v>
       </c>
-      <c r="F131" t="s">
+      <c r="G131" t="s">
         <v>390</v>
       </c>
-      <c r="G131" s="1">
+      <c r="H131" s="1">
         <v>-8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B132" t="s">
         <v>391</v>
       </c>
-      <c r="B132" t="s">
+      <c r="C132" t="s">
         <v>392</v>
       </c>
-      <c r="C132" s="1">
+      <c r="D132" s="1">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="D132" t="s">
+      <c r="E132" t="s">
         <v>17</v>
       </c>
-      <c r="E132" s="1">
+      <c r="F132" s="1">
         <v>0.19600000000000001</v>
       </c>
-      <c r="F132" t="s">
+      <c r="G132" t="s">
         <v>393</v>
       </c>
-      <c r="G132" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="H132" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B133" t="s">
         <v>394</v>
       </c>
-      <c r="B133" t="s">
+      <c r="C133" t="s">
         <v>395</v>
-      </c>
-      <c r="C133" t="s">
-        <v>17</v>
       </c>
       <c r="D133" t="s">
         <v>17</v>
       </c>
-      <c r="E133" s="1">
+      <c r="E133" t="s">
+        <v>17</v>
+      </c>
+      <c r="F133" s="1">
         <v>0.14499999999999999</v>
       </c>
-      <c r="F133" t="s">
+      <c r="G133" t="s">
         <v>396</v>
       </c>
-      <c r="G133" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H133" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C134" t="s">
         <v>398</v>
       </c>
-      <c r="C134" s="1">
+      <c r="D134" s="1">
         <v>1.4E-2</v>
       </c>
-      <c r="D134" s="1">
+      <c r="E134" s="1">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="E134" s="1">
+      <c r="F134" s="1">
         <v>0.16400000000000001</v>
       </c>
-      <c r="F134" t="s">
+      <c r="G134" t="s">
         <v>399</v>
       </c>
-      <c r="G134" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="H134" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B135" t="s">
         <v>400</v>
       </c>
-      <c r="B135" t="s">
+      <c r="C135" t="s">
         <v>401</v>
       </c>
-      <c r="C135" s="1">
+      <c r="D135" s="1">
         <v>1.4E-2</v>
       </c>
-      <c r="D135" s="1">
+      <c r="E135" s="1">
         <v>2.7E-2</v>
       </c>
-      <c r="E135" s="1">
+      <c r="F135" s="1">
         <v>0.182</v>
       </c>
-      <c r="F135" t="s">
+      <c r="G135" t="s">
         <v>402</v>
       </c>
-      <c r="G135" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="H135" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B136" t="s">
         <v>403</v>
       </c>
-      <c r="B136" t="s">
+      <c r="C136" t="s">
         <v>404</v>
       </c>
-      <c r="C136" s="1">
+      <c r="D136" s="1">
         <v>1.4E-2</v>
       </c>
-      <c r="D136" s="1">
+      <c r="E136" s="1">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="E136" s="1">
+      <c r="F136" s="1">
         <v>0.19500000000000001</v>
       </c>
-      <c r="F136" t="s">
+      <c r="G136" t="s">
         <v>405</v>
       </c>
-      <c r="G136" s="1">
+      <c r="H136" s="1">
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C137" t="s">
         <v>407</v>
       </c>
-      <c r="C137" s="1">
+      <c r="D137" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D137" s="1">
+      <c r="E137" s="1">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="E137" s="1">
+      <c r="F137" s="1">
         <v>0.248</v>
       </c>
-      <c r="F137" t="s">
+      <c r="G137" t="s">
         <v>408</v>
       </c>
-      <c r="G137" s="1">
+      <c r="H137" s="1">
         <v>-5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B138" t="s">
         <v>409</v>
       </c>
-      <c r="B138" t="s">
+      <c r="C138" t="s">
         <v>410</v>
       </c>
-      <c r="C138" s="1">
+      <c r="D138" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D138" s="1">
+      <c r="E138" s="1">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="E138" s="1">
+      <c r="F138" s="1">
         <v>0.19800000000000001</v>
       </c>
-      <c r="F138" t="s">
+      <c r="G138" t="s">
         <v>411</v>
       </c>
-      <c r="G138" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="H138" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B139" t="s">
         <v>412</v>
       </c>
-      <c r="B139" t="s">
+      <c r="C139" t="s">
         <v>413</v>
       </c>
-      <c r="C139" s="1">
+      <c r="D139" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D139" s="1">
+      <c r="E139" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E139" s="1">
+      <c r="F139" s="1">
         <v>0.183</v>
       </c>
-      <c r="F139" t="s">
+      <c r="G139" t="s">
         <v>414</v>
       </c>
-      <c r="G139" s="1">
+      <c r="H139" s="1">
         <v>-8.0000000000000002E-3</v>
       </c>
     </row>
